--- a/data_craw/quarter/balance_sheet_quarter/ssb.xlsx
+++ b/data_craw/quarter/balance_sheet_quarter/ssb.xlsx
@@ -441,82 +441,82 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>2019_q3</t>
+          <t>2020_q3</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2019_q4</t>
+          <t>2020_q4</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2020_q1</t>
+          <t>2021_q1</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>2020_q2</t>
+          <t>2021_q2</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>2020_q3</t>
+          <t>2021_q3</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>2020_q4</t>
+          <t>2021_q4</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>2021_q1</t>
+          <t>2022_q1</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>2021_q2</t>
+          <t>2022_q2</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>2021_q3</t>
+          <t>2022_q3</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>2021_q4</t>
+          <t>2022_q4</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>2022_q1</t>
+          <t>2023_q1</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>2022_q2</t>
+          <t>2023_q2</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>2022_q3</t>
+          <t>2023_q3</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>2022_q4</t>
+          <t>2023_q4</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>2023_q1</t>
+          <t>2024_q1</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>2023_q2</t>
+          <t>2024_q2</t>
         </is>
       </c>
     </row>
@@ -573,53 +573,45 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>972316000000</v>
+        <v>1008343000000</v>
       </c>
       <c r="C4" t="n">
-        <v>1290009000000</v>
+        <v>1012228000000</v>
       </c>
       <c r="D4" t="n">
-        <v>973305000000</v>
+        <v>1074508000000</v>
       </c>
       <c r="E4" t="n">
-        <v>1089816000000</v>
+        <v>1095064000000</v>
       </c>
       <c r="F4" t="n">
-        <v>1008343000000</v>
+        <v>926271000000</v>
       </c>
       <c r="G4" t="n">
-        <v>1012228000000</v>
+        <v>1076028000000</v>
       </c>
       <c r="H4" t="n">
-        <v>1074508000000</v>
+        <v>1034117000000</v>
       </c>
       <c r="I4" t="n">
-        <v>1095064000000</v>
+        <v>1033269000000</v>
       </c>
       <c r="J4" t="n">
-        <v>926271000000</v>
+        <v>921542000000</v>
       </c>
       <c r="K4" t="n">
-        <v>1076028000000</v>
+        <v>1037807000000</v>
       </c>
       <c r="L4" t="n">
-        <v>1034117000000</v>
+        <v>963485000000</v>
       </c>
       <c r="M4" t="n">
-        <v>1033269000000</v>
-      </c>
-      <c r="N4" t="n">
-        <v>921542000000</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1037807000000</v>
-      </c>
-      <c r="P4" t="n">
-        <v>963485000000</v>
-      </c>
-      <c r="Q4" t="n">
         <v>920926000000</v>
       </c>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -674,53 +666,45 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2538134000000</v>
+        <v>4474865000000</v>
       </c>
       <c r="C7" t="n">
-        <v>3231833000000</v>
+        <v>3374359000000</v>
       </c>
       <c r="D7" t="n">
-        <v>1552016000000</v>
+        <v>1275847000000</v>
       </c>
       <c r="E7" t="n">
-        <v>2009299000000</v>
+        <v>2844601000000</v>
       </c>
       <c r="F7" t="n">
-        <v>4474865000000</v>
+        <v>2067946000000</v>
       </c>
       <c r="G7" t="n">
-        <v>3374359000000</v>
+        <v>4799360000000</v>
       </c>
       <c r="H7" t="n">
-        <v>1275847000000</v>
+        <v>621486000000</v>
       </c>
       <c r="I7" t="n">
-        <v>2844601000000</v>
+        <v>3832672000000</v>
       </c>
       <c r="J7" t="n">
-        <v>2067946000000</v>
+        <v>3979776000000</v>
       </c>
       <c r="K7" t="n">
-        <v>4799360000000</v>
+        <v>9826851000000</v>
       </c>
       <c r="L7" t="n">
-        <v>621486000000</v>
+        <v>1505339000000</v>
       </c>
       <c r="M7" t="n">
-        <v>3832672000000</v>
-      </c>
-      <c r="N7" t="n">
-        <v>3979776000000</v>
-      </c>
-      <c r="O7" t="n">
-        <v>9826851000000</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1505339000000</v>
-      </c>
-      <c r="Q7" t="n">
         <v>5277471000000</v>
       </c>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -798,53 +782,45 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>17104697000000</v>
+        <v>25984580000000</v>
       </c>
       <c r="C11" t="n">
-        <v>25399935000000</v>
+        <v>25741179000000</v>
       </c>
       <c r="D11" t="n">
-        <v>16691280000000</v>
+        <v>30883398000000</v>
       </c>
       <c r="E11" t="n">
-        <v>25602585000000</v>
+        <v>33098224000000</v>
       </c>
       <c r="F11" t="n">
-        <v>25984580000000</v>
+        <v>31940581000000</v>
       </c>
       <c r="G11" t="n">
-        <v>25741179000000</v>
+        <v>42590477000000</v>
       </c>
       <c r="H11" t="n">
-        <v>30883398000000</v>
+        <v>49720200000000</v>
       </c>
       <c r="I11" t="n">
-        <v>33098224000000</v>
+        <v>52343826000000</v>
       </c>
       <c r="J11" t="n">
-        <v>31940581000000</v>
+        <v>52727409000000</v>
       </c>
       <c r="K11" t="n">
-        <v>42590477000000</v>
+        <v>45068410000000</v>
       </c>
       <c r="L11" t="n">
-        <v>49720200000000</v>
+        <v>54925730000000</v>
       </c>
       <c r="M11" t="n">
-        <v>52343826000000</v>
-      </c>
-      <c r="N11" t="n">
-        <v>52727409000000</v>
-      </c>
-      <c r="O11" t="n">
-        <v>45068410000000</v>
-      </c>
-      <c r="P11" t="n">
-        <v>54925730000000</v>
-      </c>
-      <c r="Q11" t="n">
         <v>44259836000000</v>
       </c>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -853,53 +829,45 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>16745313000000</v>
+        <v>25984580000000</v>
       </c>
       <c r="C12" t="n">
-        <v>24135256000000</v>
+        <v>25641179000000</v>
       </c>
       <c r="D12" t="n">
-        <v>16249924000000</v>
+        <v>28582827000000</v>
       </c>
       <c r="E12" t="n">
-        <v>25498364000000</v>
+        <v>32244305000000</v>
       </c>
       <c r="F12" t="n">
-        <v>25984580000000</v>
+        <v>30099911000000</v>
       </c>
       <c r="G12" t="n">
-        <v>25641179000000</v>
+        <v>35233492000000</v>
       </c>
       <c r="H12" t="n">
-        <v>28582827000000</v>
+        <v>45515029000000</v>
       </c>
       <c r="I12" t="n">
-        <v>32244305000000</v>
+        <v>47905460000000</v>
       </c>
       <c r="J12" t="n">
-        <v>30099911000000</v>
+        <v>50191288000000</v>
       </c>
       <c r="K12" t="n">
-        <v>35233492000000</v>
+        <v>41462465000000</v>
       </c>
       <c r="L12" t="n">
-        <v>45515029000000</v>
+        <v>49514199000000</v>
       </c>
       <c r="M12" t="n">
-        <v>47905460000000</v>
-      </c>
-      <c r="N12" t="n">
-        <v>50191288000000</v>
-      </c>
-      <c r="O12" t="n">
-        <v>41462465000000</v>
-      </c>
-      <c r="P12" t="n">
-        <v>49514199000000</v>
-      </c>
-      <c r="Q12" t="n">
         <v>41004836000000</v>
       </c>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -907,52 +875,44 @@
           <t>2. Trả trước cho người bán ngắn hạn</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>359384000000</v>
-      </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="n">
-        <v>1264679000000</v>
+        <v>100000000000</v>
       </c>
       <c r="D13" t="n">
-        <v>441356000000</v>
+        <v>2300571000000</v>
       </c>
       <c r="E13" t="n">
-        <v>104221000000</v>
-      </c>
-      <c r="F13" t="inlineStr"/>
+        <v>853919000000</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1840670000000</v>
+      </c>
       <c r="G13" t="n">
-        <v>100000000000</v>
+        <v>7356985000000</v>
       </c>
       <c r="H13" t="n">
-        <v>2300571000000</v>
+        <v>4205171000000</v>
       </c>
       <c r="I13" t="n">
-        <v>853919000000</v>
+        <v>4438366000000</v>
       </c>
       <c r="J13" t="n">
-        <v>1840670000000</v>
+        <v>2536121000000</v>
       </c>
       <c r="K13" t="n">
-        <v>7356985000000</v>
+        <v>3605945000000</v>
       </c>
       <c r="L13" t="n">
-        <v>4205171000000</v>
+        <v>5411531000000</v>
       </c>
       <c r="M13" t="n">
-        <v>4438366000000</v>
-      </c>
-      <c r="N13" t="n">
-        <v>2536121000000</v>
-      </c>
-      <c r="O13" t="n">
-        <v>3605945000000</v>
-      </c>
-      <c r="P13" t="n">
-        <v>5411531000000</v>
-      </c>
-      <c r="Q13" t="n">
         <v>3255000000000</v>
       </c>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1099,53 +1059,45 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>3334165000000</v>
+        <v>3929864000000</v>
       </c>
       <c r="C20" t="n">
-        <v>1262704000000</v>
+        <v>2693849000000</v>
       </c>
       <c r="D20" t="n">
-        <v>2105485000000</v>
+        <v>6389797000000</v>
       </c>
       <c r="E20" t="n">
-        <v>3429824000000</v>
+        <v>9149156000000</v>
       </c>
       <c r="F20" t="n">
-        <v>3929864000000</v>
+        <v>13883689000000</v>
       </c>
       <c r="G20" t="n">
-        <v>2693849000000</v>
+        <v>13082630000000</v>
       </c>
       <c r="H20" t="n">
-        <v>6389797000000</v>
+        <v>18551877000000</v>
       </c>
       <c r="I20" t="n">
-        <v>9149156000000</v>
+        <v>13407656000000</v>
       </c>
       <c r="J20" t="n">
-        <v>13883689000000</v>
+        <v>8444448000000</v>
       </c>
       <c r="K20" t="n">
-        <v>13082630000000</v>
+        <v>3987085000000</v>
       </c>
       <c r="L20" t="n">
-        <v>18551877000000</v>
+        <v>4293033000000</v>
       </c>
       <c r="M20" t="n">
-        <v>13407656000000</v>
-      </c>
-      <c r="N20" t="n">
-        <v>8444448000000</v>
-      </c>
-      <c r="O20" t="n">
-        <v>3987085000000</v>
-      </c>
-      <c r="P20" t="n">
-        <v>4293033000000</v>
-      </c>
-      <c r="Q20" t="n">
         <v>4946023000000</v>
       </c>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1154,53 +1106,45 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3399108000000</v>
+        <v>3960983000000</v>
       </c>
       <c r="C21" t="n">
-        <v>1310696000000</v>
+        <v>2705920000000</v>
       </c>
       <c r="D21" t="n">
-        <v>2153477000000</v>
+        <v>6400320000000</v>
       </c>
       <c r="E21" t="n">
-        <v>3472805000000</v>
+        <v>9204391000000</v>
       </c>
       <c r="F21" t="n">
-        <v>3960983000000</v>
+        <v>13932920000000</v>
       </c>
       <c r="G21" t="n">
-        <v>2705920000000</v>
+        <v>13094009000000</v>
       </c>
       <c r="H21" t="n">
-        <v>6400320000000</v>
+        <v>18554423000000</v>
       </c>
       <c r="I21" t="n">
-        <v>9204391000000</v>
+        <v>13407758000000</v>
       </c>
       <c r="J21" t="n">
-        <v>13932920000000</v>
+        <v>8444550000000</v>
       </c>
       <c r="K21" t="n">
-        <v>13094009000000</v>
+        <v>3987085000000</v>
       </c>
       <c r="L21" t="n">
-        <v>18554423000000</v>
+        <v>4293033000000</v>
       </c>
       <c r="M21" t="n">
-        <v>13407758000000</v>
-      </c>
-      <c r="N21" t="n">
-        <v>8444550000000</v>
-      </c>
-      <c r="O21" t="n">
-        <v>3987085000000</v>
-      </c>
-      <c r="P21" t="n">
-        <v>4293033000000</v>
-      </c>
-      <c r="Q21" t="n">
         <v>4946023000000</v>
       </c>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1209,44 +1153,36 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-64943000000</v>
+        <v>-31119000000</v>
       </c>
       <c r="C22" t="n">
-        <v>-47992000000</v>
+        <v>-12071000000</v>
       </c>
       <c r="D22" t="n">
-        <v>-47992000000</v>
+        <v>-10524000000</v>
       </c>
       <c r="E22" t="n">
-        <v>-42981000000</v>
+        <v>-55235000000</v>
       </c>
       <c r="F22" t="n">
-        <v>-31119000000</v>
+        <v>-49231000000</v>
       </c>
       <c r="G22" t="n">
-        <v>-12071000000</v>
+        <v>-11379000000</v>
       </c>
       <c r="H22" t="n">
-        <v>-10524000000</v>
+        <v>-2546000000</v>
       </c>
       <c r="I22" t="n">
-        <v>-55235000000</v>
+        <v>-102000000</v>
       </c>
       <c r="J22" t="n">
-        <v>-49231000000</v>
-      </c>
-      <c r="K22" t="n">
-        <v>-11379000000</v>
-      </c>
-      <c r="L22" t="n">
-        <v>-2546000000</v>
-      </c>
-      <c r="M22" t="n">
         <v>-102000000</v>
       </c>
-      <c r="N22" t="n">
-        <v>-102000000</v>
-      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr"/>
@@ -1258,39 +1194,35 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>179437000000</v>
-      </c>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="n">
-        <v>231637000000</v>
-      </c>
+        <v>214312000000</v>
+      </c>
+      <c r="C23" t="n">
+        <v>144604000000</v>
+      </c>
+      <c r="D23" t="n">
+        <v>63257000000</v>
+      </c>
+      <c r="E23" t="inlineStr"/>
       <c r="F23" t="n">
-        <v>214312000000</v>
-      </c>
-      <c r="G23" t="n">
-        <v>144604000000</v>
-      </c>
-      <c r="H23" t="n">
-        <v>63257000000</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
+        <v>272470000000</v>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="n">
+        <v>176824000000</v>
+      </c>
       <c r="J23" t="n">
-        <v>272470000000</v>
+        <v>150074000000</v>
       </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
-        <v>176824000000</v>
-      </c>
-      <c r="N23" t="n">
-        <v>150074000000</v>
-      </c>
+        <v>76891000000</v>
+      </c>
+      <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="n">
-        <v>76891000000</v>
-      </c>
+      <c r="Q23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1437,51 +1369,43 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>129341000000</v>
+        <v>104577000000</v>
       </c>
       <c r="C30" t="n">
-        <v>120759000000</v>
+        <v>102912000000</v>
       </c>
       <c r="D30" t="n">
-        <v>120759000000</v>
+        <v>102912000000</v>
       </c>
       <c r="E30" t="n">
-        <v>113547000000</v>
+        <v>96812000000</v>
       </c>
       <c r="F30" t="n">
-        <v>104577000000</v>
+        <v>86406000000</v>
       </c>
       <c r="G30" t="n">
-        <v>102912000000</v>
+        <v>85091000000</v>
       </c>
       <c r="H30" t="n">
-        <v>102912000000</v>
+        <v>85091000000</v>
       </c>
       <c r="I30" t="n">
-        <v>96812000000</v>
+        <v>85415000000</v>
       </c>
       <c r="J30" t="n">
-        <v>86406000000</v>
+        <v>61313000000</v>
       </c>
       <c r="K30" t="n">
-        <v>85091000000</v>
-      </c>
-      <c r="L30" t="n">
-        <v>85091000000</v>
-      </c>
+        <v>61313000000</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
-        <v>85415000000</v>
-      </c>
-      <c r="N30" t="n">
-        <v>61313000000</v>
-      </c>
-      <c r="O30" t="n">
-        <v>61313000000</v>
-      </c>
+        <v>61892000000</v>
+      </c>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="n">
-        <v>61892000000</v>
-      </c>
+      <c r="Q30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1559,53 +1483,45 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>186431000000</v>
+        <v>131666000000</v>
       </c>
       <c r="C34" t="n">
-        <v>147848000000</v>
+        <v>131666000000</v>
       </c>
       <c r="D34" t="n">
-        <v>147848000000</v>
+        <v>131666000000</v>
       </c>
       <c r="E34" t="n">
-        <v>140636000000</v>
+        <v>127009000000</v>
       </c>
       <c r="F34" t="n">
-        <v>131666000000</v>
+        <v>116603000000</v>
       </c>
       <c r="G34" t="n">
-        <v>131666000000</v>
+        <v>86534000000</v>
       </c>
       <c r="H34" t="n">
-        <v>131666000000</v>
+        <v>86534000000</v>
       </c>
       <c r="I34" t="n">
-        <v>127009000000</v>
+        <v>86534000000</v>
       </c>
       <c r="J34" t="n">
-        <v>116603000000</v>
+        <v>62432000000</v>
       </c>
       <c r="K34" t="n">
-        <v>86534000000</v>
+        <v>62432000000</v>
       </c>
       <c r="L34" t="n">
-        <v>86534000000</v>
+        <v>62432000000</v>
       </c>
       <c r="M34" t="n">
-        <v>86534000000</v>
-      </c>
-      <c r="N34" t="n">
         <v>62432000000</v>
       </c>
-      <c r="O34" t="n">
-        <v>62432000000</v>
-      </c>
-      <c r="P34" t="n">
-        <v>62432000000</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>62432000000</v>
-      </c>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1660,53 +1576,45 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-57090000000</v>
+        <v>-27089000000</v>
       </c>
       <c r="C37" t="n">
-        <v>-27089000000</v>
+        <v>-28754000000</v>
       </c>
       <c r="D37" t="n">
-        <v>-27089000000</v>
+        <v>-28754000000</v>
       </c>
       <c r="E37" t="n">
-        <v>-27089000000</v>
+        <v>-30197000000</v>
       </c>
       <c r="F37" t="n">
-        <v>-27089000000</v>
+        <v>-30197000000</v>
       </c>
       <c r="G37" t="n">
-        <v>-28754000000</v>
+        <v>-1443000000</v>
       </c>
       <c r="H37" t="n">
-        <v>-28754000000</v>
+        <v>-1443000000</v>
       </c>
       <c r="I37" t="n">
-        <v>-30197000000</v>
+        <v>-1119000000</v>
       </c>
       <c r="J37" t="n">
-        <v>-30197000000</v>
+        <v>-1119000000</v>
       </c>
       <c r="K37" t="n">
-        <v>-1443000000</v>
+        <v>-1119000000</v>
       </c>
       <c r="L37" t="n">
-        <v>-1443000000</v>
+        <v>-1119000000</v>
       </c>
       <c r="M37" t="n">
-        <v>-1119000000</v>
-      </c>
-      <c r="N37" t="n">
-        <v>-1119000000</v>
-      </c>
-      <c r="O37" t="n">
-        <v>-1119000000</v>
-      </c>
-      <c r="P37" t="n">
-        <v>-1119000000</v>
-      </c>
-      <c r="Q37" t="n">
         <v>-540000000</v>
       </c>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1715,53 +1623,45 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>774156000000</v>
+        <v>783283000000</v>
       </c>
       <c r="C38" t="n">
-        <v>770572000000</v>
+        <v>862487000000</v>
       </c>
       <c r="D38" t="n">
-        <v>761662000000</v>
+        <v>853235000000</v>
       </c>
       <c r="E38" t="n">
-        <v>792435000000</v>
+        <v>867201000000</v>
       </c>
       <c r="F38" t="n">
-        <v>783283000000</v>
+        <v>857557000000</v>
       </c>
       <c r="G38" t="n">
-        <v>862487000000</v>
+        <v>882503000000</v>
       </c>
       <c r="H38" t="n">
-        <v>853235000000</v>
+        <v>898248000000</v>
       </c>
       <c r="I38" t="n">
-        <v>867201000000</v>
+        <v>935256000000</v>
       </c>
       <c r="J38" t="n">
-        <v>857557000000</v>
+        <v>947728000000</v>
       </c>
       <c r="K38" t="n">
-        <v>882503000000</v>
+        <v>1085692000000</v>
       </c>
       <c r="L38" t="n">
-        <v>898248000000</v>
+        <v>1072695000000</v>
       </c>
       <c r="M38" t="n">
-        <v>935256000000</v>
-      </c>
-      <c r="N38" t="n">
-        <v>947728000000</v>
-      </c>
-      <c r="O38" t="n">
-        <v>1085692000000</v>
-      </c>
-      <c r="P38" t="n">
-        <v>1072695000000</v>
-      </c>
-      <c r="Q38" t="n">
         <v>1174401000000</v>
       </c>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1770,53 +1670,45 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>211642000000</v>
+        <v>208957000000</v>
       </c>
       <c r="C39" t="n">
-        <v>211740000000</v>
+        <v>283496000000</v>
       </c>
       <c r="D39" t="n">
-        <v>202459000000</v>
+        <v>278220000000</v>
       </c>
       <c r="E39" t="n">
-        <v>198592000000</v>
+        <v>276285000000</v>
       </c>
       <c r="F39" t="n">
-        <v>208957000000</v>
+        <v>267745000000</v>
       </c>
       <c r="G39" t="n">
-        <v>283496000000</v>
+        <v>286268000000</v>
       </c>
       <c r="H39" t="n">
-        <v>278220000000</v>
+        <v>301945000000</v>
       </c>
       <c r="I39" t="n">
-        <v>276285000000</v>
+        <v>308763000000</v>
       </c>
       <c r="J39" t="n">
-        <v>267745000000</v>
+        <v>312898000000</v>
       </c>
       <c r="K39" t="n">
-        <v>286268000000</v>
+        <v>427189000000</v>
       </c>
       <c r="L39" t="n">
-        <v>301945000000</v>
+        <v>410465000000</v>
       </c>
       <c r="M39" t="n">
-        <v>308763000000</v>
-      </c>
-      <c r="N39" t="n">
-        <v>312898000000</v>
-      </c>
-      <c r="O39" t="n">
-        <v>427189000000</v>
-      </c>
-      <c r="P39" t="n">
-        <v>410465000000</v>
-      </c>
-      <c r="Q39" t="n">
         <v>491261000000</v>
       </c>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1825,53 +1717,45 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>620172000000</v>
+        <v>651552000000</v>
       </c>
       <c r="C40" t="n">
-        <v>630071000000</v>
+        <v>739271000000</v>
       </c>
       <c r="D40" t="n">
-        <v>630027000000</v>
+        <v>745816000000</v>
       </c>
       <c r="E40" t="n">
-        <v>634423000000</v>
+        <v>755687000000</v>
       </c>
       <c r="F40" t="n">
-        <v>651552000000</v>
+        <v>758647000000</v>
       </c>
       <c r="G40" t="n">
-        <v>739271000000</v>
+        <v>678972000000</v>
       </c>
       <c r="H40" t="n">
-        <v>745816000000</v>
+        <v>706641000000</v>
       </c>
       <c r="I40" t="n">
-        <v>755687000000</v>
+        <v>726313000000</v>
       </c>
       <c r="J40" t="n">
-        <v>758647000000</v>
+        <v>740573000000</v>
       </c>
       <c r="K40" t="n">
-        <v>678972000000</v>
+        <v>877679000000</v>
       </c>
       <c r="L40" t="n">
-        <v>706641000000</v>
+        <v>879420000000</v>
       </c>
       <c r="M40" t="n">
-        <v>726313000000</v>
-      </c>
-      <c r="N40" t="n">
-        <v>740573000000</v>
-      </c>
-      <c r="O40" t="n">
-        <v>877679000000</v>
-      </c>
-      <c r="P40" t="n">
-        <v>879420000000</v>
-      </c>
-      <c r="Q40" t="n">
         <v>981537000000</v>
       </c>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1880,53 +1764,45 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-408530000000</v>
+        <v>-442595000000</v>
       </c>
       <c r="C41" t="n">
-        <v>-418331000000</v>
+        <v>-455775000000</v>
       </c>
       <c r="D41" t="n">
-        <v>-427568000000</v>
+        <v>-467596000000</v>
       </c>
       <c r="E41" t="n">
-        <v>-435831000000</v>
+        <v>-479402000000</v>
       </c>
       <c r="F41" t="n">
-        <v>-442595000000</v>
+        <v>-490902000000</v>
       </c>
       <c r="G41" t="n">
-        <v>-455775000000</v>
+        <v>-392704000000</v>
       </c>
       <c r="H41" t="n">
-        <v>-467596000000</v>
+        <v>-404695000000</v>
       </c>
       <c r="I41" t="n">
-        <v>-479402000000</v>
+        <v>-417550000000</v>
       </c>
       <c r="J41" t="n">
-        <v>-490902000000</v>
+        <v>-427675000000</v>
       </c>
       <c r="K41" t="n">
-        <v>-392704000000</v>
+        <v>-450490000000</v>
       </c>
       <c r="L41" t="n">
-        <v>-404695000000</v>
+        <v>-468955000000</v>
       </c>
       <c r="M41" t="n">
-        <v>-417550000000</v>
-      </c>
-      <c r="N41" t="n">
-        <v>-427675000000</v>
-      </c>
-      <c r="O41" t="n">
-        <v>-450490000000</v>
-      </c>
-      <c r="P41" t="n">
-        <v>-468955000000</v>
-      </c>
-      <c r="Q41" t="n">
         <v>-490276000000</v>
       </c>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2004,53 +1880,45 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>562514000000</v>
+        <v>574326000000</v>
       </c>
       <c r="C45" t="n">
-        <v>558832000000</v>
+        <v>578991000000</v>
       </c>
       <c r="D45" t="n">
-        <v>559203000000</v>
+        <v>575015000000</v>
       </c>
       <c r="E45" t="n">
-        <v>593843000000</v>
+        <v>590916000000</v>
       </c>
       <c r="F45" t="n">
-        <v>574326000000</v>
+        <v>589811000000</v>
       </c>
       <c r="G45" t="n">
-        <v>578991000000</v>
+        <v>596235000000</v>
       </c>
       <c r="H45" t="n">
-        <v>575015000000</v>
+        <v>596303000000</v>
       </c>
       <c r="I45" t="n">
-        <v>590916000000</v>
+        <v>626493000000</v>
       </c>
       <c r="J45" t="n">
-        <v>589811000000</v>
+        <v>634830000000</v>
       </c>
       <c r="K45" t="n">
-        <v>596235000000</v>
+        <v>658503000000</v>
       </c>
       <c r="L45" t="n">
-        <v>596303000000</v>
+        <v>662231000000</v>
       </c>
       <c r="M45" t="n">
-        <v>626493000000</v>
-      </c>
-      <c r="N45" t="n">
-        <v>634830000000</v>
-      </c>
-      <c r="O45" t="n">
-        <v>658503000000</v>
-      </c>
-      <c r="P45" t="n">
-        <v>662231000000</v>
-      </c>
-      <c r="Q45" t="n">
         <v>683140000000</v>
       </c>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2059,53 +1927,45 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>695799000000</v>
+        <v>730892000000</v>
       </c>
       <c r="C46" t="n">
-        <v>696981000000</v>
+        <v>741512000000</v>
       </c>
       <c r="D46" t="n">
-        <v>702415000000</v>
+        <v>744293000000</v>
       </c>
       <c r="E46" t="n">
-        <v>744396000000</v>
+        <v>767078000000</v>
       </c>
       <c r="F46" t="n">
-        <v>730892000000</v>
+        <v>772993000000</v>
       </c>
       <c r="G46" t="n">
-        <v>741512000000</v>
+        <v>760635000000</v>
       </c>
       <c r="H46" t="n">
-        <v>744293000000</v>
+        <v>767070000000</v>
       </c>
       <c r="I46" t="n">
-        <v>767078000000</v>
+        <v>805190000000</v>
       </c>
       <c r="J46" t="n">
-        <v>772993000000</v>
+        <v>821277000000</v>
       </c>
       <c r="K46" t="n">
-        <v>760635000000</v>
+        <v>854399000000</v>
       </c>
       <c r="L46" t="n">
-        <v>767070000000</v>
+        <v>867375000000</v>
       </c>
       <c r="M46" t="n">
-        <v>805190000000</v>
-      </c>
-      <c r="N46" t="n">
-        <v>821277000000</v>
-      </c>
-      <c r="O46" t="n">
-        <v>854399000000</v>
-      </c>
-      <c r="P46" t="n">
-        <v>867375000000</v>
-      </c>
-      <c r="Q46" t="n">
         <v>898766000000</v>
       </c>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2114,53 +1974,45 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-133285000000</v>
+        <v>-156566000000</v>
       </c>
       <c r="C47" t="n">
-        <v>-138149000000</v>
+        <v>-162521000000</v>
       </c>
       <c r="D47" t="n">
-        <v>-143212000000</v>
+        <v>-169278000000</v>
       </c>
       <c r="E47" t="n">
-        <v>-150553000000</v>
+        <v>-176162000000</v>
       </c>
       <c r="F47" t="n">
-        <v>-156566000000</v>
+        <v>-183182000000</v>
       </c>
       <c r="G47" t="n">
-        <v>-162521000000</v>
+        <v>-164400000000</v>
       </c>
       <c r="H47" t="n">
-        <v>-169278000000</v>
+        <v>-170767000000</v>
       </c>
       <c r="I47" t="n">
-        <v>-176162000000</v>
+        <v>-178697000000</v>
       </c>
       <c r="J47" t="n">
-        <v>-183182000000</v>
+        <v>-186447000000</v>
       </c>
       <c r="K47" t="n">
-        <v>-164400000000</v>
+        <v>-195896000000</v>
       </c>
       <c r="L47" t="n">
-        <v>-170767000000</v>
+        <v>-205144000000</v>
       </c>
       <c r="M47" t="n">
-        <v>-178697000000</v>
-      </c>
-      <c r="N47" t="n">
-        <v>-186447000000</v>
-      </c>
-      <c r="O47" t="n">
-        <v>-195896000000</v>
-      </c>
-      <c r="P47" t="n">
-        <v>-205144000000</v>
-      </c>
-      <c r="Q47" t="n">
         <v>-215626000000</v>
       </c>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2238,53 +2090,45 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>241329000000</v>
+        <v>241283000000</v>
       </c>
       <c r="C51" t="n">
-        <v>241517000000</v>
+        <v>240934000000</v>
       </c>
       <c r="D51" t="n">
-        <v>241017000000</v>
+        <v>241207000000</v>
       </c>
       <c r="E51" t="n">
-        <v>240672000000</v>
+        <v>65530000000</v>
       </c>
       <c r="F51" t="n">
-        <v>241283000000</v>
+        <v>65858000000</v>
       </c>
       <c r="G51" t="n">
-        <v>240934000000</v>
+        <v>65564000000</v>
       </c>
       <c r="H51" t="n">
-        <v>241207000000</v>
+        <v>65137000000</v>
       </c>
       <c r="I51" t="n">
-        <v>65530000000</v>
+        <v>58607000000</v>
       </c>
       <c r="J51" t="n">
-        <v>65858000000</v>
+        <v>58314000000</v>
       </c>
       <c r="K51" t="n">
-        <v>65564000000</v>
+        <v>58047000000</v>
       </c>
       <c r="L51" t="n">
-        <v>65137000000</v>
+        <v>57757000000</v>
       </c>
       <c r="M51" t="n">
-        <v>58607000000</v>
-      </c>
-      <c r="N51" t="n">
-        <v>58314000000</v>
-      </c>
-      <c r="O51" t="n">
-        <v>58047000000</v>
-      </c>
-      <c r="P51" t="n">
-        <v>57757000000</v>
-      </c>
-      <c r="Q51" t="n">
         <v>61076000000</v>
       </c>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2293,53 +2137,45 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>247862000000</v>
+        <v>249060000000</v>
       </c>
       <c r="C52" t="n">
-        <v>248294000000</v>
+        <v>249060000000</v>
       </c>
       <c r="D52" t="n">
-        <v>248106000000</v>
+        <v>249577000000</v>
       </c>
       <c r="E52" t="n">
-        <v>248106000000</v>
+        <v>70187000000</v>
       </c>
       <c r="F52" t="n">
-        <v>249060000000</v>
+        <v>70809000000</v>
       </c>
       <c r="G52" t="n">
-        <v>249060000000</v>
+        <v>70809000000</v>
       </c>
       <c r="H52" t="n">
-        <v>249577000000</v>
+        <v>70675000000</v>
       </c>
       <c r="I52" t="n">
-        <v>70187000000</v>
+        <v>64439000000</v>
       </c>
       <c r="J52" t="n">
-        <v>70809000000</v>
+        <v>64439000000</v>
       </c>
       <c r="K52" t="n">
-        <v>70809000000</v>
+        <v>64466000000</v>
       </c>
       <c r="L52" t="n">
-        <v>70675000000</v>
+        <v>64469000000</v>
       </c>
       <c r="M52" t="n">
-        <v>64439000000</v>
-      </c>
-      <c r="N52" t="n">
-        <v>64439000000</v>
-      </c>
-      <c r="O52" t="n">
-        <v>64466000000</v>
-      </c>
-      <c r="P52" t="n">
-        <v>64469000000</v>
-      </c>
-      <c r="Q52" t="n">
         <v>68082000000</v>
       </c>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr"/>
+      <c r="P52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2348,53 +2184,45 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>-6533000000</v>
+        <v>-7777000000</v>
       </c>
       <c r="C53" t="n">
-        <v>-6777000000</v>
+        <v>-8126000000</v>
       </c>
       <c r="D53" t="n">
-        <v>-7089000000</v>
+        <v>-8371000000</v>
       </c>
       <c r="E53" t="n">
-        <v>-7434000000</v>
+        <v>-4657000000</v>
       </c>
       <c r="F53" t="n">
-        <v>-7777000000</v>
+        <v>-4951000000</v>
       </c>
       <c r="G53" t="n">
-        <v>-8126000000</v>
+        <v>-5244000000</v>
       </c>
       <c r="H53" t="n">
-        <v>-8371000000</v>
+        <v>-5538000000</v>
       </c>
       <c r="I53" t="n">
-        <v>-4657000000</v>
+        <v>-5831000000</v>
       </c>
       <c r="J53" t="n">
-        <v>-4951000000</v>
+        <v>-6125000000</v>
       </c>
       <c r="K53" t="n">
-        <v>-5244000000</v>
+        <v>-6419000000</v>
       </c>
       <c r="L53" t="n">
-        <v>-5538000000</v>
+        <v>-6712000000</v>
       </c>
       <c r="M53" t="n">
-        <v>-5831000000</v>
-      </c>
-      <c r="N53" t="n">
-        <v>-6125000000</v>
-      </c>
-      <c r="O53" t="n">
-        <v>-6419000000</v>
-      </c>
-      <c r="P53" t="n">
-        <v>-6712000000</v>
-      </c>
-      <c r="Q53" t="n">
         <v>-7006000000</v>
       </c>
+      <c r="N53" t="inlineStr"/>
+      <c r="O53" t="inlineStr"/>
+      <c r="P53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2403,53 +2231,45 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>7824722000000</v>
+        <v>7289971000000</v>
       </c>
       <c r="C54" t="n">
-        <v>6908898000000</v>
+        <v>6093518000000</v>
       </c>
       <c r="D54" t="n">
-        <v>7441249000000</v>
+        <v>7971110000000</v>
       </c>
       <c r="E54" t="n">
-        <v>7202393000000</v>
+        <v>7308378000000</v>
       </c>
       <c r="F54" t="n">
-        <v>7289971000000</v>
+        <v>9002834000000</v>
       </c>
       <c r="G54" t="n">
-        <v>6093518000000</v>
+        <v>6455538000000</v>
       </c>
       <c r="H54" t="n">
-        <v>7971110000000</v>
+        <v>7317685000000</v>
       </c>
       <c r="I54" t="n">
-        <v>7308378000000</v>
+        <v>7471283000000</v>
       </c>
       <c r="J54" t="n">
-        <v>9002834000000</v>
+        <v>8921580000000</v>
       </c>
       <c r="K54" t="n">
-        <v>6455538000000</v>
+        <v>10127923000000</v>
       </c>
       <c r="L54" t="n">
-        <v>7317685000000</v>
+        <v>12997373000000</v>
       </c>
       <c r="M54" t="n">
-        <v>7471283000000</v>
-      </c>
-      <c r="N54" t="n">
-        <v>8921580000000</v>
-      </c>
-      <c r="O54" t="n">
-        <v>10127923000000</v>
-      </c>
-      <c r="P54" t="n">
-        <v>12997373000000</v>
-      </c>
-      <c r="Q54" t="n">
         <v>13921666000000</v>
       </c>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2458,53 +2278,45 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>1209301000000</v>
+        <v>1367534000000</v>
       </c>
       <c r="C55" t="n">
-        <v>1134339000000</v>
+        <v>1282827000000</v>
       </c>
       <c r="D55" t="n">
-        <v>1284197000000</v>
+        <v>1757355000000</v>
       </c>
       <c r="E55" t="n">
-        <v>1289095000000</v>
+        <v>1750946000000</v>
       </c>
       <c r="F55" t="n">
-        <v>1367534000000</v>
+        <v>2531172000000</v>
       </c>
       <c r="G55" t="n">
-        <v>1282827000000</v>
+        <v>1991841000000</v>
       </c>
       <c r="H55" t="n">
-        <v>1757355000000</v>
+        <v>1762332000000</v>
       </c>
       <c r="I55" t="n">
-        <v>1750946000000</v>
+        <v>2201510000000</v>
       </c>
       <c r="J55" t="n">
-        <v>2531172000000</v>
+        <v>3035124000000</v>
       </c>
       <c r="K55" t="n">
-        <v>1991841000000</v>
+        <v>5490462000000</v>
       </c>
       <c r="L55" t="n">
-        <v>1762332000000</v>
+        <v>6195596000000</v>
       </c>
       <c r="M55" t="n">
-        <v>2201510000000</v>
-      </c>
-      <c r="N55" t="n">
-        <v>3035124000000</v>
-      </c>
-      <c r="O55" t="n">
-        <v>5490462000000</v>
-      </c>
-      <c r="P55" t="n">
-        <v>6195596000000</v>
-      </c>
-      <c r="Q55" t="n">
         <v>7424922000000</v>
       </c>
+      <c r="N55" t="inlineStr"/>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2513,53 +2325,45 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>4194966000000</v>
+        <v>3603486000000</v>
       </c>
       <c r="C56" t="n">
-        <v>3380276000000</v>
+        <v>2598213000000</v>
       </c>
       <c r="D56" t="n">
-        <v>3658371000000</v>
+        <v>3285546000000</v>
       </c>
       <c r="E56" t="n">
-        <v>3515403000000</v>
+        <v>2680026000000</v>
       </c>
       <c r="F56" t="n">
-        <v>3603486000000</v>
+        <v>3667522000000</v>
       </c>
       <c r="G56" t="n">
-        <v>2598213000000</v>
+        <v>1679591000000</v>
       </c>
       <c r="H56" t="n">
-        <v>3285546000000</v>
+        <v>2791407000000</v>
       </c>
       <c r="I56" t="n">
-        <v>2680026000000</v>
+        <v>2656165000000</v>
       </c>
       <c r="J56" t="n">
-        <v>3667522000000</v>
+        <v>3323917000000</v>
       </c>
       <c r="K56" t="n">
-        <v>1679591000000</v>
+        <v>2594093000000</v>
       </c>
       <c r="L56" t="n">
-        <v>2791407000000</v>
+        <v>4088470000000</v>
       </c>
       <c r="M56" t="n">
-        <v>2656165000000</v>
-      </c>
-      <c r="N56" t="n">
-        <v>3323917000000</v>
-      </c>
-      <c r="O56" t="n">
-        <v>2594093000000</v>
-      </c>
-      <c r="P56" t="n">
-        <v>4088470000000</v>
-      </c>
-      <c r="Q56" t="n">
         <v>3473497000000</v>
       </c>
+      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="inlineStr"/>
+      <c r="P56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2591,53 +2395,45 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>2433982000000</v>
+        <v>2353616000000</v>
       </c>
       <c r="C58" t="n">
-        <v>2421266000000</v>
+        <v>2247143000000</v>
       </c>
       <c r="D58" t="n">
-        <v>2527759000000</v>
+        <v>2962874000000</v>
       </c>
       <c r="E58" t="n">
-        <v>2430999000000</v>
+        <v>2918500000000</v>
       </c>
       <c r="F58" t="n">
-        <v>2353616000000</v>
+        <v>2845234000000</v>
       </c>
       <c r="G58" t="n">
-        <v>2247143000000</v>
+        <v>2825200000000</v>
       </c>
       <c r="H58" t="n">
-        <v>2962874000000</v>
+        <v>2805040000000</v>
       </c>
       <c r="I58" t="n">
-        <v>2918500000000</v>
+        <v>2654038000000</v>
       </c>
       <c r="J58" t="n">
-        <v>2845234000000</v>
+        <v>2602969000000</v>
       </c>
       <c r="K58" t="n">
-        <v>2825200000000</v>
+        <v>2083798000000</v>
       </c>
       <c r="L58" t="n">
-        <v>2805040000000</v>
+        <v>2753737000000</v>
       </c>
       <c r="M58" t="n">
-        <v>2654038000000</v>
-      </c>
-      <c r="N58" t="n">
-        <v>2602969000000</v>
-      </c>
-      <c r="O58" t="n">
-        <v>2083798000000</v>
-      </c>
-      <c r="P58" t="n">
-        <v>2753737000000</v>
-      </c>
-      <c r="Q58" t="n">
         <v>3063677000000</v>
       </c>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2646,53 +2442,45 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>640849000000</v>
+        <v>569644000000</v>
       </c>
       <c r="C59" t="n">
-        <v>623048000000</v>
+        <v>551843000000</v>
       </c>
       <c r="D59" t="n">
-        <v>605247000000</v>
+        <v>534041000000</v>
       </c>
       <c r="E59" t="n">
-        <v>587445000000</v>
+        <v>516240000000</v>
       </c>
       <c r="F59" t="n">
-        <v>569644000000</v>
+        <v>498438000000</v>
       </c>
       <c r="G59" t="n">
-        <v>551843000000</v>
+        <v>480637000000</v>
       </c>
       <c r="H59" t="n">
-        <v>534041000000</v>
+        <v>462836000000</v>
       </c>
       <c r="I59" t="n">
-        <v>516240000000</v>
+        <v>445034000000</v>
       </c>
       <c r="J59" t="n">
-        <v>498438000000</v>
+        <v>427233000000</v>
       </c>
       <c r="K59" t="n">
-        <v>480637000000</v>
+        <v>409431000000</v>
       </c>
       <c r="L59" t="n">
-        <v>462836000000</v>
+        <v>391630000000</v>
       </c>
       <c r="M59" t="n">
-        <v>445034000000</v>
-      </c>
-      <c r="N59" t="n">
-        <v>427233000000</v>
-      </c>
-      <c r="O59" t="n">
-        <v>409431000000</v>
-      </c>
-      <c r="P59" t="n">
-        <v>391630000000</v>
-      </c>
-      <c r="Q59" t="n">
         <v>373829000000</v>
       </c>
+      <c r="N59" t="inlineStr"/>
+      <c r="O59" t="inlineStr"/>
+      <c r="P59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2885,53 +2673,45 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>152558612000000</v>
+        <v>167426241000000</v>
       </c>
       <c r="C68" t="n">
-        <v>157398288000000</v>
+        <v>180207288000000</v>
       </c>
       <c r="D68" t="n">
-        <v>148500554000000</v>
+        <v>184320897000000</v>
       </c>
       <c r="E68" t="n">
-        <v>161540018000000</v>
+        <v>186934447000000</v>
       </c>
       <c r="F68" t="n">
-        <v>167426241000000</v>
+        <v>197629226000000</v>
       </c>
       <c r="G68" t="n">
-        <v>180207288000000</v>
+        <v>211663515000000</v>
       </c>
       <c r="H68" t="n">
-        <v>184320897000000</v>
+        <v>231222030000000</v>
       </c>
       <c r="I68" t="n">
-        <v>186934447000000</v>
+        <v>229723225000000</v>
       </c>
       <c r="J68" t="n">
-        <v>197629226000000</v>
+        <v>229145802000000</v>
       </c>
       <c r="K68" t="n">
-        <v>211663515000000</v>
+        <v>231423056000000</v>
       </c>
       <c r="L68" t="n">
-        <v>231222030000000</v>
+        <v>245169088000000</v>
       </c>
       <c r="M68" t="n">
-        <v>229723225000000</v>
-      </c>
-      <c r="N68" t="n">
-        <v>229145802000000</v>
-      </c>
-      <c r="O68" t="n">
-        <v>231423056000000</v>
-      </c>
-      <c r="P68" t="n">
-        <v>245169088000000</v>
-      </c>
-      <c r="Q68" t="n">
         <v>245206026000000</v>
       </c>
+      <c r="N68" t="inlineStr"/>
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="inlineStr"/>
+      <c r="Q68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2940,53 +2720,45 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>245958000000</v>
+        <v>215202000000</v>
       </c>
       <c r="C69" t="n">
-        <v>238592000000</v>
+        <v>205702000000</v>
       </c>
       <c r="D69" t="n">
-        <v>232860000000</v>
+        <v>198527000000</v>
       </c>
       <c r="E69" t="n">
-        <v>224562000000</v>
+        <v>190419000000</v>
       </c>
       <c r="F69" t="n">
-        <v>215202000000</v>
+        <v>1278189000000</v>
       </c>
       <c r="G69" t="n">
-        <v>205702000000</v>
+        <v>2172763000000</v>
       </c>
       <c r="H69" t="n">
-        <v>198527000000</v>
+        <v>2193018000000</v>
       </c>
       <c r="I69" t="n">
-        <v>190419000000</v>
+        <v>2155809000000</v>
       </c>
       <c r="J69" t="n">
-        <v>1278189000000</v>
+        <v>2148330000000</v>
       </c>
       <c r="K69" t="n">
-        <v>2172763000000</v>
+        <v>3838696000000</v>
       </c>
       <c r="L69" t="n">
-        <v>2193018000000</v>
+        <v>2131646000000</v>
       </c>
       <c r="M69" t="n">
-        <v>2155809000000</v>
-      </c>
-      <c r="N69" t="n">
-        <v>2148330000000</v>
-      </c>
-      <c r="O69" t="n">
-        <v>3838696000000</v>
-      </c>
-      <c r="P69" t="n">
-        <v>2131646000000</v>
-      </c>
-      <c r="Q69" t="n">
         <v>2126443000000</v>
       </c>
+      <c r="N69" t="inlineStr"/>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3202,53 +2974,45 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>32858680000000</v>
+        <v>40287921000000</v>
       </c>
       <c r="C79" t="n">
-        <v>31469651000000</v>
+        <v>42516673000000</v>
       </c>
       <c r="D79" t="n">
-        <v>19100379000000</v>
+        <v>44399230000000</v>
       </c>
       <c r="E79" t="n">
-        <v>36084857000000</v>
+        <v>52062705000000</v>
       </c>
       <c r="F79" t="n">
-        <v>40287921000000</v>
+        <v>57778322000000</v>
       </c>
       <c r="G79" t="n">
-        <v>42516673000000</v>
+        <v>58365998000000</v>
       </c>
       <c r="H79" t="n">
-        <v>44399230000000</v>
+        <v>77451665000000</v>
       </c>
       <c r="I79" t="n">
-        <v>52062705000000</v>
+        <v>63121369000000</v>
       </c>
       <c r="J79" t="n">
-        <v>57778322000000</v>
+        <v>60673439000000</v>
       </c>
       <c r="K79" t="n">
-        <v>58365998000000</v>
+        <v>59719627000000</v>
       </c>
       <c r="L79" t="n">
-        <v>77451665000000</v>
+        <v>68338473000000</v>
       </c>
       <c r="M79" t="n">
-        <v>63121369000000</v>
-      </c>
-      <c r="N79" t="n">
-        <v>60673439000000</v>
-      </c>
-      <c r="O79" t="n">
-        <v>59719627000000</v>
-      </c>
-      <c r="P79" t="n">
-        <v>68338473000000</v>
-      </c>
-      <c r="Q79" t="n">
         <v>65789598000000</v>
       </c>
+      <c r="N79" t="inlineStr"/>
+      <c r="O79" t="inlineStr"/>
+      <c r="P79" t="inlineStr"/>
+      <c r="Q79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3257,53 +3021,45 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>20327113000000</v>
+        <v>31387685000000</v>
       </c>
       <c r="C80" t="n">
-        <v>21274592000000</v>
+        <v>25388472000000</v>
       </c>
       <c r="D80" t="n">
-        <v>13166230000000</v>
+        <v>34423365000000</v>
       </c>
       <c r="E80" t="n">
-        <v>29000665000000</v>
+        <v>39565591000000</v>
       </c>
       <c r="F80" t="n">
-        <v>31387685000000</v>
+        <v>41139221000000</v>
       </c>
       <c r="G80" t="n">
-        <v>25388472000000</v>
+        <v>35552732000000</v>
       </c>
       <c r="H80" t="n">
-        <v>34423365000000</v>
+        <v>57259735000000</v>
       </c>
       <c r="I80" t="n">
-        <v>39565591000000</v>
+        <v>47365269000000</v>
       </c>
       <c r="J80" t="n">
-        <v>41139221000000</v>
+        <v>52312785000000</v>
       </c>
       <c r="K80" t="n">
-        <v>35552732000000</v>
+        <v>44265765000000</v>
       </c>
       <c r="L80" t="n">
-        <v>57259735000000</v>
+        <v>47960068000000</v>
       </c>
       <c r="M80" t="n">
-        <v>47365269000000</v>
-      </c>
-      <c r="N80" t="n">
-        <v>52312785000000</v>
-      </c>
-      <c r="O80" t="n">
-        <v>44265765000000</v>
-      </c>
-      <c r="P80" t="n">
-        <v>47960068000000</v>
-      </c>
-      <c r="Q80" t="n">
         <v>45395238000000</v>
       </c>
+      <c r="N80" t="inlineStr"/>
+      <c r="O80" t="inlineStr"/>
+      <c r="P80" t="inlineStr"/>
+      <c r="Q80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3312,53 +3068,45 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>12531567000000</v>
+        <v>8900236000000</v>
       </c>
       <c r="C81" t="n">
-        <v>10195059000000</v>
+        <v>17128201000000</v>
       </c>
       <c r="D81" t="n">
-        <v>5934149000000</v>
+        <v>9975865000000</v>
       </c>
       <c r="E81" t="n">
-        <v>7084192000000</v>
+        <v>12497114000000</v>
       </c>
       <c r="F81" t="n">
-        <v>8900236000000</v>
+        <v>16639101000000</v>
       </c>
       <c r="G81" t="n">
-        <v>17128201000000</v>
+        <v>22813266000000</v>
       </c>
       <c r="H81" t="n">
-        <v>9975865000000</v>
+        <v>20191930000000</v>
       </c>
       <c r="I81" t="n">
-        <v>12497114000000</v>
+        <v>15756100000000</v>
       </c>
       <c r="J81" t="n">
-        <v>16639101000000</v>
+        <v>8360654000000</v>
       </c>
       <c r="K81" t="n">
-        <v>22813266000000</v>
+        <v>15453862000000</v>
       </c>
       <c r="L81" t="n">
-        <v>20191930000000</v>
+        <v>20378405000000</v>
       </c>
       <c r="M81" t="n">
-        <v>15756100000000</v>
-      </c>
-      <c r="N81" t="n">
-        <v>8360654000000</v>
-      </c>
-      <c r="O81" t="n">
-        <v>15453862000000</v>
-      </c>
-      <c r="P81" t="n">
-        <v>20378405000000</v>
-      </c>
-      <c r="Q81" t="n">
         <v>20394360000000</v>
       </c>
+      <c r="N81" t="inlineStr"/>
+      <c r="O81" t="inlineStr"/>
+      <c r="P81" t="inlineStr"/>
+      <c r="Q81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -3413,53 +3161,45 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>90754304000000</v>
+        <v>102547411000000</v>
       </c>
       <c r="C84" t="n">
-        <v>95727318000000</v>
+        <v>113276597000000</v>
       </c>
       <c r="D84" t="n">
-        <v>98610547000000</v>
+        <v>115198284000000</v>
       </c>
       <c r="E84" t="n">
-        <v>100233665000000</v>
+        <v>107983872000000</v>
       </c>
       <c r="F84" t="n">
-        <v>102547411000000</v>
+        <v>110440626000000</v>
       </c>
       <c r="G84" t="n">
-        <v>113276597000000</v>
+        <v>109784637000000</v>
       </c>
       <c r="H84" t="n">
-        <v>115198284000000</v>
+        <v>106116923000000</v>
       </c>
       <c r="I84" t="n">
-        <v>107983872000000</v>
+        <v>116726330000000</v>
       </c>
       <c r="J84" t="n">
-        <v>110440626000000</v>
+        <v>113345223000000</v>
       </c>
       <c r="K84" t="n">
-        <v>109784637000000</v>
+        <v>115547271000000</v>
       </c>
       <c r="L84" t="n">
-        <v>106116923000000</v>
+        <v>117695160000000</v>
       </c>
       <c r="M84" t="n">
-        <v>116726330000000</v>
-      </c>
-      <c r="N84" t="n">
-        <v>113345223000000</v>
-      </c>
-      <c r="O84" t="n">
-        <v>115547271000000</v>
-      </c>
-      <c r="P84" t="n">
-        <v>117695160000000</v>
-      </c>
-      <c r="Q84" t="n">
         <v>123232629000000</v>
       </c>
+      <c r="N84" t="inlineStr"/>
+      <c r="O84" t="inlineStr"/>
+      <c r="P84" t="inlineStr"/>
+      <c r="Q84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -3676,31 +3416,29 @@
       </c>
       <c r="B94" t="inlineStr"/>
       <c r="C94" t="inlineStr"/>
-      <c r="D94" t="n">
-        <v>43717000000</v>
-      </c>
-      <c r="E94" t="inlineStr"/>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="n">
+        <v>27721000000</v>
+      </c>
       <c r="F94" t="inlineStr"/>
-      <c r="G94" t="inlineStr"/>
-      <c r="H94" t="inlineStr"/>
-      <c r="I94" t="n">
-        <v>27721000000</v>
-      </c>
+      <c r="G94" t="n">
+        <v>47804000000</v>
+      </c>
+      <c r="H94" t="n">
+        <v>310021000000</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="n">
-        <v>47804000000</v>
+        <v>14963000000</v>
       </c>
       <c r="L94" t="n">
-        <v>310021000000</v>
+        <v>348398000000</v>
       </c>
       <c r="M94" t="inlineStr"/>
       <c r="N94" t="inlineStr"/>
-      <c r="O94" t="n">
-        <v>14963000000</v>
-      </c>
-      <c r="P94" t="n">
-        <v>348398000000</v>
-      </c>
+      <c r="O94" t="inlineStr"/>
+      <c r="P94" t="inlineStr"/>
       <c r="Q94" t="inlineStr"/>
     </row>
     <row r="95">
@@ -3779,53 +3517,45 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>142184591000000</v>
+        <v>155627657000000</v>
       </c>
       <c r="C98" t="n">
-        <v>146472446000000</v>
+        <v>166536910000000</v>
       </c>
       <c r="D98" t="n">
-        <v>137235890000000</v>
+        <v>170095457000000</v>
       </c>
       <c r="E98" t="n">
-        <v>150116427000000</v>
+        <v>172055265000000</v>
       </c>
       <c r="F98" t="n">
-        <v>155627657000000</v>
+        <v>181594682000000</v>
       </c>
       <c r="G98" t="n">
-        <v>166536910000000</v>
+        <v>193000251000000</v>
       </c>
       <c r="H98" t="n">
-        <v>170095457000000</v>
+        <v>208631198000000</v>
       </c>
       <c r="I98" t="n">
-        <v>172055265000000</v>
+        <v>206166425000000</v>
       </c>
       <c r="J98" t="n">
-        <v>181594682000000</v>
+        <v>204525707000000</v>
       </c>
       <c r="K98" t="n">
-        <v>193000251000000</v>
+        <v>205190836000000</v>
       </c>
       <c r="L98" t="n">
-        <v>208631198000000</v>
+        <v>218082604000000</v>
       </c>
       <c r="M98" t="n">
-        <v>206166425000000</v>
-      </c>
-      <c r="N98" t="n">
-        <v>204525707000000</v>
-      </c>
-      <c r="O98" t="n">
-        <v>205190836000000</v>
-      </c>
-      <c r="P98" t="n">
-        <v>218082604000000</v>
-      </c>
-      <c r="Q98" t="n">
         <v>217484189000000</v>
       </c>
+      <c r="N98" t="inlineStr"/>
+      <c r="O98" t="inlineStr"/>
+      <c r="P98" t="inlineStr"/>
+      <c r="Q98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -3857,53 +3587,45 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>9369000000000</v>
+        <v>10680660000000</v>
       </c>
       <c r="C100" t="n">
-        <v>9369000000000</v>
+        <v>12087442000000</v>
       </c>
       <c r="D100" t="n">
-        <v>9369000000000</v>
+        <v>12087442000000</v>
       </c>
       <c r="E100" t="n">
-        <v>9369000000000</v>
+        <v>12087442000000</v>
       </c>
       <c r="F100" t="n">
-        <v>10680660000000</v>
+        <v>13424884000000</v>
       </c>
       <c r="G100" t="n">
-        <v>12087442000000</v>
+        <v>14784884000000</v>
       </c>
       <c r="H100" t="n">
-        <v>12087442000000</v>
+        <v>16598000000000</v>
       </c>
       <c r="I100" t="n">
-        <v>12087442000000</v>
+        <v>19808983000000</v>
       </c>
       <c r="J100" t="n">
-        <v>13424884000000</v>
+        <v>19808983000000</v>
       </c>
       <c r="K100" t="n">
-        <v>14784884000000</v>
+        <v>20402983000000</v>
       </c>
       <c r="L100" t="n">
-        <v>16598000000000</v>
+        <v>20402983000000</v>
       </c>
       <c r="M100" t="n">
-        <v>19808983000000</v>
-      </c>
-      <c r="N100" t="n">
-        <v>19808983000000</v>
-      </c>
-      <c r="O100" t="n">
         <v>20402983000000</v>
       </c>
-      <c r="P100" t="n">
-        <v>20402983000000</v>
-      </c>
-      <c r="Q100" t="n">
-        <v>20402983000000</v>
-      </c>
+      <c r="N100" t="inlineStr"/>
+      <c r="O100" t="inlineStr"/>
+      <c r="P100" t="inlineStr"/>
+      <c r="Q100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -3984,34 +3706,34 @@
       <c r="C104" t="inlineStr"/>
       <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr"/>
-      <c r="F104" t="inlineStr"/>
-      <c r="G104" t="inlineStr"/>
-      <c r="H104" t="inlineStr"/>
-      <c r="I104" t="inlineStr"/>
+      <c r="F104" t="n">
+        <v>130623000000</v>
+      </c>
+      <c r="G104" t="n">
+        <v>810623000000</v>
+      </c>
+      <c r="H104" t="n">
+        <v>1717181000000</v>
+      </c>
+      <c r="I104" t="n">
+        <v>907185000000</v>
+      </c>
       <c r="J104" t="n">
-        <v>130623000000</v>
+        <v>907184000000</v>
       </c>
       <c r="K104" t="n">
-        <v>810623000000</v>
+        <v>1204184000000</v>
       </c>
       <c r="L104" t="n">
-        <v>1717181000000</v>
+        <v>1204184000000</v>
       </c>
       <c r="M104" t="n">
-        <v>907185000000</v>
-      </c>
-      <c r="N104" t="n">
-        <v>907184000000</v>
-      </c>
-      <c r="O104" t="n">
         <v>1204184000000</v>
       </c>
-      <c r="P104" t="n">
-        <v>1204184000000</v>
-      </c>
-      <c r="Q104" t="n">
-        <v>1204184000000</v>
-      </c>
+      <c r="N104" t="inlineStr"/>
+      <c r="O104" t="inlineStr"/>
+      <c r="P104" t="inlineStr"/>
+      <c r="Q104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -4158,53 +3880,45 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>94795000000</v>
+        <v>231990000000</v>
       </c>
       <c r="C111" t="n">
-        <v>231990000000</v>
+        <v>456110000000</v>
       </c>
       <c r="D111" t="n">
-        <v>232205000000</v>
+        <v>456110000000</v>
       </c>
       <c r="E111" t="n">
-        <v>231990000000</v>
+        <v>456110000000</v>
       </c>
       <c r="F111" t="n">
-        <v>231990000000</v>
+        <v>456110000000</v>
       </c>
       <c r="G111" t="n">
-        <v>456110000000</v>
+        <v>855641000000</v>
       </c>
       <c r="H111" t="n">
-        <v>456110000000</v>
+        <v>855641000000</v>
       </c>
       <c r="I111" t="n">
-        <v>456110000000</v>
+        <v>568642000000</v>
       </c>
       <c r="J111" t="n">
-        <v>456110000000</v>
+        <v>568643000000</v>
       </c>
       <c r="K111" t="n">
-        <v>855641000000</v>
+        <v>1155967000000</v>
       </c>
       <c r="L111" t="n">
-        <v>855641000000</v>
+        <v>1155967000000</v>
       </c>
       <c r="M111" t="n">
-        <v>568642000000</v>
-      </c>
-      <c r="N111" t="n">
-        <v>568643000000</v>
-      </c>
-      <c r="O111" t="n">
         <v>1155967000000</v>
       </c>
-      <c r="P111" t="n">
-        <v>1155967000000</v>
-      </c>
-      <c r="Q111" t="n">
-        <v>1155967000000</v>
-      </c>
+      <c r="N111" t="inlineStr"/>
+      <c r="O111" t="inlineStr"/>
+      <c r="P111" t="inlineStr"/>
+      <c r="Q111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -4328,45 +4042,39 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>-27637000000</v>
+        <v>8095000000</v>
       </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="n">
-        <v>30833000000</v>
+        <v>-87000000</v>
       </c>
       <c r="E117" t="n">
-        <v>2777000000</v>
+        <v>-10393000000</v>
       </c>
       <c r="F117" t="n">
-        <v>8095000000</v>
+        <v>2681000000</v>
       </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="n">
-        <v>-87000000</v>
+        <v>159034000000</v>
       </c>
       <c r="I117" t="n">
-        <v>-10393000000</v>
+        <v>17744000000</v>
       </c>
       <c r="J117" t="n">
-        <v>2681000000</v>
+        <v>116286000000</v>
       </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
-        <v>159034000000</v>
+        <v>457000000</v>
       </c>
       <c r="M117" t="n">
-        <v>17744000000</v>
-      </c>
-      <c r="N117" t="n">
-        <v>116286000000</v>
-      </c>
+        <v>-1359000000</v>
+      </c>
+      <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr"/>
-      <c r="P117" t="n">
-        <v>457000000</v>
-      </c>
-      <c r="Q117" t="n">
-        <v>-1359000000</v>
-      </c>
+      <c r="P117" t="inlineStr"/>
+      <c r="Q117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
